--- a/会计/Manufacturing Account/UEB 1982 Q6.xlsx
+++ b/会计/Manufacturing Account/UEB 1982 Q6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4C89B-BBA9-0644-A1C0-CC50AEAFC835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400811A1-AC58-3F4B-9B62-C762AD8BCAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{703F90D7-273A-D54F-BEB0-E6B5417B4102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -175,9 +175,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,6 +195,9 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,467 +521,465 @@
   </sheetPr>
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="164" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="39.6640625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>11600</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>-900</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
         <f>B8+B9</f>
         <v>10700</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>100</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="C11" s="7">
         <f>B10+B11</f>
         <v>10800</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C12" s="4">
         <v>-350</v>
       </c>
-      <c r="C13" s="8">
-        <f>B13+B12</f>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7">
+        <f>C12+C11</f>
         <v>10450</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <f>C7+C13</f>
         <v>10950</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7">
         <v>3800</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
         <f>C14+C16</f>
         <v>14750</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>300</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f>B19+B20</f>
         <v>830</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
         <f>C17+C20</f>
         <v>15580</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
         <f>C21+C22</f>
         <v>15980</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9">
+      <c r="B25" s="4"/>
+      <c r="C25" s="8">
         <f>C23+C24</f>
         <v>15380</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="2:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
